--- a/Data_file/ob_stockFG10/ST01-Deli.xlsx
+++ b/Data_file/ob_stockFG10/ST01-Deli.xlsx
@@ -59,9 +59,6 @@
     <t>GSP0006093</t>
   </si>
   <si>
-    <t>ST01/Stock</t>
-  </si>
-  <si>
     <t>SSP00330</t>
   </si>
   <si>
@@ -438,6 +435,9 @@
   </si>
   <si>
     <t>OB-Deliveries</t>
+  </si>
+  <si>
+    <t>Partners/Customers</t>
   </si>
 </sst>
 </file>
@@ -787,7 +787,7 @@
   <dimension ref="A1:J470"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="F2" sqref="F2:F130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -835,13 +835,13 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B2" s="5">
         <v>45747</v>
       </c>
       <c r="C2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D2" s="5">
         <v>45747</v>
@@ -850,10 +850,10 @@
         <v>10</v>
       </c>
       <c r="F2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G2" t="s">
         <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -864,25 +864,25 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B3" s="5">
         <v>45747</v>
       </c>
       <c r="C3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D3" s="5">
         <v>45747</v>
       </c>
       <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>137</v>
+      </c>
+      <c r="G3" t="s">
         <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s">
-        <v>14</v>
       </c>
       <c r="H3">
         <v>12</v>
@@ -893,25 +893,25 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B4" s="5">
         <v>45747</v>
       </c>
       <c r="C4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D4" s="5">
         <v>45747</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
+        <v>137</v>
       </c>
       <c r="G4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H4">
         <v>2</v>
@@ -922,25 +922,25 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B5" s="5">
         <v>45747</v>
       </c>
       <c r="C5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D5" s="5">
         <v>45747</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
+        <v>137</v>
       </c>
       <c r="G5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -951,25 +951,25 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B6" s="5">
         <v>45747</v>
       </c>
       <c r="C6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D6" s="5">
         <v>45747</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
+        <v>137</v>
       </c>
       <c r="G6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H6">
         <v>3</v>
@@ -980,25 +980,25 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B7" s="5">
         <v>45747</v>
       </c>
       <c r="C7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D7" s="5">
         <v>45747</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
+        <v>137</v>
       </c>
       <c r="G7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H7">
         <v>5</v>
@@ -1009,25 +1009,25 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B8" s="5">
         <v>45747</v>
       </c>
       <c r="C8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D8" s="5">
         <v>45747</v>
       </c>
       <c r="E8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" t="s">
+        <v>137</v>
+      </c>
+      <c r="G8" t="s">
         <v>18</v>
-      </c>
-      <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s">
-        <v>19</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -1038,25 +1038,25 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B9" s="5">
         <v>45747</v>
       </c>
       <c r="C9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D9" s="5">
         <v>45747</v>
       </c>
       <c r="E9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" t="s">
+        <v>137</v>
+      </c>
+      <c r="G9" t="s">
         <v>20</v>
-      </c>
-      <c r="F9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" t="s">
-        <v>21</v>
       </c>
       <c r="H9">
         <v>3</v>
@@ -1067,25 +1067,25 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B10" s="5">
         <v>45747</v>
       </c>
       <c r="C10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D10" s="5">
         <v>45747</v>
       </c>
       <c r="E10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
+        <v>137</v>
       </c>
       <c r="G10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H10">
         <v>3</v>
@@ -1096,25 +1096,25 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B11" s="5">
         <v>45747</v>
       </c>
       <c r="C11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D11" s="5">
         <v>45747</v>
       </c>
       <c r="E11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
+        <v>137</v>
       </c>
       <c r="G11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H11">
         <v>6</v>
@@ -1125,25 +1125,25 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B12" s="5">
         <v>45747</v>
       </c>
       <c r="C12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D12" s="5">
         <v>45747</v>
       </c>
       <c r="E12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
+        <v>137</v>
       </c>
       <c r="G12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H12">
         <v>30</v>
@@ -1154,25 +1154,25 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B13" s="5">
         <v>45747</v>
       </c>
       <c r="C13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D13" s="5">
         <v>45747</v>
       </c>
       <c r="E13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
+        <v>137</v>
       </c>
       <c r="G13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H13">
         <v>2</v>
@@ -1183,25 +1183,25 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B14" s="5">
         <v>45747</v>
       </c>
       <c r="C14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D14" s="5">
         <v>45747</v>
       </c>
       <c r="E14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
+        <v>137</v>
       </c>
       <c r="G14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H14">
         <v>5</v>
@@ -1212,25 +1212,25 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B15" s="5">
         <v>45747</v>
       </c>
       <c r="C15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D15" s="5">
         <v>45747</v>
       </c>
       <c r="E15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" t="s">
+        <v>137</v>
+      </c>
+      <c r="G15" t="s">
         <v>27</v>
-      </c>
-      <c r="F15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" t="s">
-        <v>28</v>
       </c>
       <c r="H15">
         <v>5</v>
@@ -1241,25 +1241,25 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B16" s="5">
         <v>45747</v>
       </c>
       <c r="C16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D16" s="5">
         <v>45747</v>
       </c>
       <c r="E16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" t="s">
+        <v>137</v>
+      </c>
+      <c r="G16" t="s">
         <v>29</v>
-      </c>
-      <c r="F16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" t="s">
-        <v>30</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -1270,25 +1270,25 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B17" s="5">
         <v>45747</v>
       </c>
       <c r="C17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D17" s="5">
         <v>45747</v>
       </c>
       <c r="E17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F17" t="s">
-        <v>11</v>
+        <v>137</v>
       </c>
       <c r="G17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H17">
         <v>1</v>
@@ -1299,25 +1299,25 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B18" s="5">
         <v>45747</v>
       </c>
       <c r="C18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D18" s="5">
         <v>45747</v>
       </c>
       <c r="E18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F18" t="s">
-        <v>11</v>
+        <v>137</v>
       </c>
       <c r="G18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -1328,25 +1328,25 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B19" s="5">
         <v>45747</v>
       </c>
       <c r="C19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D19" s="5">
         <v>45747</v>
       </c>
       <c r="E19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F19" t="s">
-        <v>11</v>
+        <v>137</v>
       </c>
       <c r="G19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -1357,25 +1357,25 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B20" s="5">
         <v>45747</v>
       </c>
       <c r="C20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D20" s="5">
         <v>45747</v>
       </c>
       <c r="E20" t="s">
+        <v>33</v>
+      </c>
+      <c r="F20" t="s">
+        <v>137</v>
+      </c>
+      <c r="G20" t="s">
         <v>34</v>
-      </c>
-      <c r="F20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" t="s">
-        <v>35</v>
       </c>
       <c r="H20">
         <v>2000</v>
@@ -1386,25 +1386,25 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B21" s="5">
         <v>45747</v>
       </c>
       <c r="C21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D21" s="5">
         <v>45747</v>
       </c>
       <c r="E21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F21" t="s">
-        <v>11</v>
+        <v>137</v>
       </c>
       <c r="G21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H21">
         <v>1500</v>
@@ -1415,25 +1415,25 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B22" s="5">
         <v>45747</v>
       </c>
       <c r="C22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D22" s="5">
         <v>45747</v>
       </c>
       <c r="E22" t="s">
+        <v>36</v>
+      </c>
+      <c r="F22" t="s">
+        <v>137</v>
+      </c>
+      <c r="G22" t="s">
         <v>37</v>
-      </c>
-      <c r="F22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" t="s">
-        <v>38</v>
       </c>
       <c r="H22">
         <v>10</v>
@@ -1444,25 +1444,25 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B23" s="5">
         <v>45747</v>
       </c>
       <c r="C23" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D23" s="5">
         <v>45747</v>
       </c>
       <c r="E23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F23" t="s">
-        <v>11</v>
+        <v>137</v>
       </c>
       <c r="G23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H23">
         <v>1500</v>
@@ -1473,25 +1473,25 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B24" s="5">
         <v>45747</v>
       </c>
       <c r="C24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D24" s="5">
         <v>45747</v>
       </c>
       <c r="E24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F24" t="s">
-        <v>11</v>
+        <v>137</v>
       </c>
       <c r="G24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H24">
         <v>2000</v>
@@ -1502,25 +1502,25 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B25" s="5">
         <v>45747</v>
       </c>
       <c r="C25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D25" s="5">
         <v>45747</v>
       </c>
       <c r="E25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F25" t="s">
-        <v>11</v>
+        <v>137</v>
       </c>
       <c r="G25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H25">
         <v>2000</v>
@@ -1531,25 +1531,25 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B26" s="5">
         <v>45747</v>
       </c>
       <c r="C26" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D26" s="5">
         <v>45747</v>
       </c>
       <c r="E26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F26" t="s">
-        <v>11</v>
+        <v>137</v>
       </c>
       <c r="G26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H26">
         <v>15</v>
@@ -1560,25 +1560,25 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B27" s="5">
         <v>45747</v>
       </c>
       <c r="C27" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D27" s="5">
         <v>45747</v>
       </c>
       <c r="E27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F27" t="s">
-        <v>11</v>
+        <v>137</v>
       </c>
       <c r="G27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H27">
         <v>4</v>
@@ -1589,25 +1589,25 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B28" s="5">
         <v>45747</v>
       </c>
       <c r="C28" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D28" s="5">
         <v>45747</v>
       </c>
       <c r="E28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F28" t="s">
-        <v>11</v>
+        <v>137</v>
       </c>
       <c r="G28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H28">
         <v>1</v>
@@ -1618,25 +1618,25 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B29" s="5">
         <v>45747</v>
       </c>
       <c r="C29" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D29" s="5">
         <v>45747</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F29" t="s">
-        <v>11</v>
+        <v>137</v>
       </c>
       <c r="G29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H29">
         <v>60</v>
@@ -1647,25 +1647,25 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B30" s="5">
         <v>45747</v>
       </c>
       <c r="C30" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D30" s="5">
         <v>45747</v>
       </c>
       <c r="E30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" t="s">
+        <v>137</v>
+      </c>
+      <c r="G30" t="s">
         <v>44</v>
-      </c>
-      <c r="F30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" t="s">
-        <v>45</v>
       </c>
       <c r="H30">
         <v>40</v>
@@ -1676,25 +1676,25 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B31" s="5">
         <v>45747</v>
       </c>
       <c r="C31" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D31" s="5">
         <v>45747</v>
       </c>
       <c r="E31" t="s">
+        <v>45</v>
+      </c>
+      <c r="F31" t="s">
+        <v>137</v>
+      </c>
+      <c r="G31" t="s">
         <v>46</v>
-      </c>
-      <c r="F31" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31" t="s">
-        <v>47</v>
       </c>
       <c r="H31">
         <v>1</v>
@@ -1705,25 +1705,25 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B32" s="5">
         <v>45747</v>
       </c>
       <c r="C32" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D32" s="5">
         <v>45747</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F32" t="s">
-        <v>11</v>
+        <v>137</v>
       </c>
       <c r="G32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H32">
         <v>5</v>
@@ -1734,25 +1734,25 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B33" s="5">
         <v>45747</v>
       </c>
       <c r="C33" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D33" s="5">
         <v>45747</v>
       </c>
       <c r="E33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>11</v>
+        <v>137</v>
       </c>
       <c r="G33" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H33">
         <v>2</v>
@@ -1763,25 +1763,25 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B34" s="5">
         <v>45747</v>
       </c>
       <c r="C34" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D34" s="5">
         <v>45747</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F34" t="s">
-        <v>11</v>
+        <v>137</v>
       </c>
       <c r="G34" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H34">
         <v>5</v>
@@ -1792,25 +1792,25 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B35" s="5">
         <v>45747</v>
       </c>
       <c r="C35" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D35" s="5">
         <v>45747</v>
       </c>
       <c r="E35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F35" t="s">
-        <v>11</v>
+        <v>137</v>
       </c>
       <c r="G35" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H35">
         <v>1</v>
@@ -1821,25 +1821,25 @@
     </row>
     <row r="36" spans="1:10">
       <c r="A36" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B36" s="5">
         <v>45747</v>
       </c>
       <c r="C36" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D36" s="5">
         <v>45747</v>
       </c>
       <c r="E36" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F36" t="s">
-        <v>11</v>
+        <v>137</v>
       </c>
       <c r="G36" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H36">
         <v>6</v>
@@ -1850,25 +1850,25 @@
     </row>
     <row r="37" spans="1:10">
       <c r="A37" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B37" s="5">
         <v>45747</v>
       </c>
       <c r="C37" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D37" s="5">
         <v>45747</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F37" t="s">
-        <v>11</v>
+        <v>137</v>
       </c>
       <c r="G37" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H37">
         <v>5</v>
@@ -1879,25 +1879,25 @@
     </row>
     <row r="38" spans="1:10">
       <c r="A38" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B38" s="5">
         <v>45747</v>
       </c>
       <c r="C38" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D38" s="5">
         <v>45747</v>
       </c>
       <c r="E38" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F38" t="s">
-        <v>11</v>
+        <v>137</v>
       </c>
       <c r="G38" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H38">
         <v>500</v>
@@ -1908,25 +1908,25 @@
     </row>
     <row r="39" spans="1:10">
       <c r="A39" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B39" s="5">
         <v>45747</v>
       </c>
       <c r="C39" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D39" s="5">
         <v>45747</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F39" t="s">
-        <v>11</v>
+        <v>137</v>
       </c>
       <c r="G39" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H39">
         <v>5</v>
@@ -1937,25 +1937,25 @@
     </row>
     <row r="40" spans="1:10">
       <c r="A40" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B40" s="5">
         <v>45747</v>
       </c>
       <c r="C40" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D40" s="5">
         <v>45747</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F40" t="s">
-        <v>11</v>
+        <v>137</v>
       </c>
       <c r="G40" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H40">
         <v>30</v>
@@ -1966,25 +1966,25 @@
     </row>
     <row r="41" spans="1:10">
       <c r="A41" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B41" s="5">
         <v>45747</v>
       </c>
       <c r="C41" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D41" s="5">
         <v>45747</v>
       </c>
       <c r="E41" t="s">
+        <v>54</v>
+      </c>
+      <c r="F41" t="s">
+        <v>137</v>
+      </c>
+      <c r="G41" t="s">
         <v>55</v>
-      </c>
-      <c r="F41" t="s">
-        <v>11</v>
-      </c>
-      <c r="G41" t="s">
-        <v>56</v>
       </c>
       <c r="H41">
         <v>1</v>
@@ -1995,25 +1995,25 @@
     </row>
     <row r="42" spans="1:10">
       <c r="A42" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B42" s="5">
         <v>45747</v>
       </c>
       <c r="C42" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D42" s="5">
         <v>45747</v>
       </c>
       <c r="E42" t="s">
+        <v>56</v>
+      </c>
+      <c r="F42" t="s">
+        <v>137</v>
+      </c>
+      <c r="G42" t="s">
         <v>57</v>
-      </c>
-      <c r="F42" t="s">
-        <v>11</v>
-      </c>
-      <c r="G42" t="s">
-        <v>58</v>
       </c>
       <c r="H42">
         <v>1</v>
@@ -2024,25 +2024,25 @@
     </row>
     <row r="43" spans="1:10">
       <c r="A43" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B43" s="5">
         <v>45747</v>
       </c>
       <c r="C43" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D43" s="5">
         <v>45747</v>
       </c>
       <c r="E43" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F43" t="s">
-        <v>11</v>
+        <v>137</v>
       </c>
       <c r="G43" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H43">
         <v>12</v>
@@ -2053,25 +2053,25 @@
     </row>
     <row r="44" spans="1:10">
       <c r="A44" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B44" s="5">
         <v>45747</v>
       </c>
       <c r="C44" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D44" s="5">
         <v>45747</v>
       </c>
       <c r="E44" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F44" t="s">
-        <v>11</v>
+        <v>137</v>
       </c>
       <c r="G44" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H44">
         <v>1</v>
@@ -2082,25 +2082,25 @@
     </row>
     <row r="45" spans="1:10">
       <c r="A45" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B45" s="5">
         <v>45747</v>
       </c>
       <c r="C45" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D45" s="5">
         <v>45747</v>
       </c>
       <c r="E45" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F45" t="s">
-        <v>11</v>
+        <v>137</v>
       </c>
       <c r="G45" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H45">
         <v>25</v>
@@ -2111,25 +2111,25 @@
     </row>
     <row r="46" spans="1:10">
       <c r="A46" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B46" s="5">
         <v>45747</v>
       </c>
       <c r="C46" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D46" s="5">
         <v>45747</v>
       </c>
       <c r="E46" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F46" t="s">
-        <v>11</v>
+        <v>137</v>
       </c>
       <c r="G46" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H46">
         <v>10</v>
@@ -2140,25 +2140,25 @@
     </row>
     <row r="47" spans="1:10">
       <c r="A47" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B47" s="5">
         <v>45747</v>
       </c>
       <c r="C47" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D47" s="5">
         <v>45747</v>
       </c>
       <c r="E47" t="s">
+        <v>61</v>
+      </c>
+      <c r="F47" t="s">
+        <v>137</v>
+      </c>
+      <c r="G47" t="s">
         <v>62</v>
-      </c>
-      <c r="F47" t="s">
-        <v>11</v>
-      </c>
-      <c r="G47" t="s">
-        <v>63</v>
       </c>
       <c r="H47">
         <v>100</v>
@@ -2169,25 +2169,25 @@
     </row>
     <row r="48" spans="1:10">
       <c r="A48" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B48" s="5">
         <v>45747</v>
       </c>
       <c r="C48" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D48" s="5">
         <v>45747</v>
       </c>
       <c r="E48" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F48" t="s">
-        <v>11</v>
+        <v>137</v>
       </c>
       <c r="G48" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H48">
         <v>8</v>
@@ -2198,25 +2198,25 @@
     </row>
     <row r="49" spans="1:10">
       <c r="A49" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B49" s="5">
         <v>45747</v>
       </c>
       <c r="C49" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D49" s="5">
         <v>45747</v>
       </c>
       <c r="E49" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F49" t="s">
-        <v>11</v>
+        <v>137</v>
       </c>
       <c r="G49" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H49">
         <v>12</v>
@@ -2227,25 +2227,25 @@
     </row>
     <row r="50" spans="1:10">
       <c r="A50" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B50" s="5">
         <v>45747</v>
       </c>
       <c r="C50" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D50" s="5">
         <v>45747</v>
       </c>
       <c r="E50" t="s">
+        <v>65</v>
+      </c>
+      <c r="F50" t="s">
+        <v>137</v>
+      </c>
+      <c r="G50" t="s">
         <v>66</v>
-      </c>
-      <c r="F50" t="s">
-        <v>11</v>
-      </c>
-      <c r="G50" t="s">
-        <v>67</v>
       </c>
       <c r="H50">
         <v>170</v>
@@ -2256,25 +2256,25 @@
     </row>
     <row r="51" spans="1:10">
       <c r="A51" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B51" s="5">
         <v>45747</v>
       </c>
       <c r="C51" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D51" s="5">
         <v>45747</v>
       </c>
       <c r="E51" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F51" t="s">
-        <v>11</v>
+        <v>137</v>
       </c>
       <c r="G51" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H51">
         <v>200</v>
@@ -2285,25 +2285,25 @@
     </row>
     <row r="52" spans="1:10">
       <c r="A52" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B52" s="5">
         <v>45747</v>
       </c>
       <c r="C52" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D52" s="5">
         <v>45747</v>
       </c>
       <c r="E52" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F52" t="s">
-        <v>11</v>
+        <v>137</v>
       </c>
       <c r="G52" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H52">
         <v>50</v>
@@ -2314,25 +2314,25 @@
     </row>
     <row r="53" spans="1:10">
       <c r="A53" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B53" s="5">
         <v>45747</v>
       </c>
       <c r="C53" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D53" s="5">
         <v>45747</v>
       </c>
       <c r="E53" t="s">
+        <v>69</v>
+      </c>
+      <c r="F53" t="s">
+        <v>137</v>
+      </c>
+      <c r="G53" t="s">
         <v>70</v>
-      </c>
-      <c r="F53" t="s">
-        <v>11</v>
-      </c>
-      <c r="G53" t="s">
-        <v>71</v>
       </c>
       <c r="H53">
         <v>10</v>
@@ -2343,25 +2343,25 @@
     </row>
     <row r="54" spans="1:10">
       <c r="A54" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B54" s="5">
         <v>45747</v>
       </c>
       <c r="C54" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D54" s="5">
         <v>45747</v>
       </c>
       <c r="E54" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F54" t="s">
-        <v>11</v>
+        <v>137</v>
       </c>
       <c r="G54" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H54">
         <v>1000</v>
@@ -2372,25 +2372,25 @@
     </row>
     <row r="55" spans="1:10">
       <c r="A55" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B55" s="5">
         <v>45747</v>
       </c>
       <c r="C55" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D55" s="5">
         <v>45747</v>
       </c>
       <c r="E55" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F55" t="s">
-        <v>11</v>
+        <v>137</v>
       </c>
       <c r="G55" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H55">
         <v>2</v>
@@ -2401,25 +2401,25 @@
     </row>
     <row r="56" spans="1:10">
       <c r="A56" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B56" s="5">
         <v>45747</v>
       </c>
       <c r="C56" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D56" s="5">
         <v>45747</v>
       </c>
       <c r="E56" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F56" t="s">
-        <v>11</v>
+        <v>137</v>
       </c>
       <c r="G56" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H56">
         <v>1000</v>
@@ -2430,25 +2430,25 @@
     </row>
     <row r="57" spans="1:10">
       <c r="A57" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B57" s="5">
         <v>45747</v>
       </c>
       <c r="C57" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D57" s="5">
         <v>45747</v>
       </c>
       <c r="E57" t="s">
+        <v>74</v>
+      </c>
+      <c r="F57" t="s">
+        <v>137</v>
+      </c>
+      <c r="G57" t="s">
         <v>75</v>
-      </c>
-      <c r="F57" t="s">
-        <v>11</v>
-      </c>
-      <c r="G57" t="s">
-        <v>76</v>
       </c>
       <c r="H57">
         <v>6</v>
@@ -2459,25 +2459,25 @@
     </row>
     <row r="58" spans="1:10">
       <c r="A58" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B58" s="5">
         <v>45747</v>
       </c>
       <c r="C58" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D58" s="5">
         <v>45747</v>
       </c>
       <c r="E58" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F58" t="s">
-        <v>11</v>
+        <v>137</v>
       </c>
       <c r="G58" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H58">
         <v>2</v>
@@ -2488,25 +2488,25 @@
     </row>
     <row r="59" spans="1:10">
       <c r="A59" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B59" s="5">
         <v>45747</v>
       </c>
       <c r="C59" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D59" s="5">
         <v>45747</v>
       </c>
       <c r="E59" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F59" t="s">
-        <v>11</v>
+        <v>137</v>
       </c>
       <c r="G59" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H59">
         <v>1</v>
@@ -2517,25 +2517,25 @@
     </row>
     <row r="60" spans="1:10">
       <c r="A60" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B60" s="5">
         <v>45747</v>
       </c>
       <c r="C60" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D60" s="5">
         <v>45747</v>
       </c>
       <c r="E60" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F60" t="s">
-        <v>11</v>
+        <v>137</v>
       </c>
       <c r="G60" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H60">
         <v>12</v>
@@ -2546,25 +2546,25 @@
     </row>
     <row r="61" spans="1:10">
       <c r="A61" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B61" s="5">
         <v>45747</v>
       </c>
       <c r="C61" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D61" s="5">
         <v>45747</v>
       </c>
       <c r="E61" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F61" t="s">
-        <v>11</v>
+        <v>137</v>
       </c>
       <c r="G61" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H61">
         <v>6</v>
@@ -2575,25 +2575,25 @@
     </row>
     <row r="62" spans="1:10">
       <c r="A62" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B62" s="5">
         <v>45747</v>
       </c>
       <c r="C62" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D62" s="5">
         <v>45747</v>
       </c>
       <c r="E62" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F62" t="s">
-        <v>11</v>
+        <v>137</v>
       </c>
       <c r="G62" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H62">
         <v>3</v>
@@ -2604,25 +2604,25 @@
     </row>
     <row r="63" spans="1:10">
       <c r="A63" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B63" s="5">
         <v>45747</v>
       </c>
       <c r="C63" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D63" s="5">
         <v>45747</v>
       </c>
       <c r="E63" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F63" t="s">
-        <v>11</v>
+        <v>137</v>
       </c>
       <c r="G63" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H63">
         <v>6</v>
@@ -2633,25 +2633,25 @@
     </row>
     <row r="64" spans="1:10">
       <c r="A64" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B64" s="5">
         <v>45747</v>
       </c>
       <c r="C64" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D64" s="5">
         <v>45747</v>
       </c>
       <c r="E64" t="s">
+        <v>79</v>
+      </c>
+      <c r="F64" t="s">
+        <v>137</v>
+      </c>
+      <c r="G64" t="s">
         <v>80</v>
-      </c>
-      <c r="F64" t="s">
-        <v>11</v>
-      </c>
-      <c r="G64" t="s">
-        <v>81</v>
       </c>
       <c r="H64">
         <v>107</v>
@@ -2662,25 +2662,25 @@
     </row>
     <row r="65" spans="1:10">
       <c r="A65" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B65" s="5">
         <v>45747</v>
       </c>
       <c r="C65" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D65" s="5">
         <v>45747</v>
       </c>
       <c r="E65" t="s">
+        <v>81</v>
+      </c>
+      <c r="F65" t="s">
+        <v>137</v>
+      </c>
+      <c r="G65" t="s">
         <v>82</v>
-      </c>
-      <c r="F65" t="s">
-        <v>11</v>
-      </c>
-      <c r="G65" t="s">
-        <v>83</v>
       </c>
       <c r="H65">
         <v>3000</v>
@@ -2691,25 +2691,25 @@
     </row>
     <row r="66" spans="1:10">
       <c r="A66" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B66" s="5">
         <v>45747</v>
       </c>
       <c r="C66" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D66" s="5">
         <v>45747</v>
       </c>
       <c r="E66" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F66" t="s">
-        <v>11</v>
+        <v>137</v>
       </c>
       <c r="G66" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H66">
         <v>5000</v>
@@ -2720,25 +2720,25 @@
     </row>
     <row r="67" spans="1:10">
       <c r="A67" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B67" s="5">
         <v>45747</v>
       </c>
       <c r="C67" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D67" s="5">
         <v>45747</v>
       </c>
       <c r="E67" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F67" t="s">
-        <v>11</v>
+        <v>137</v>
       </c>
       <c r="G67" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H67">
         <v>5</v>
@@ -2749,25 +2749,25 @@
     </row>
     <row r="68" spans="1:10">
       <c r="A68" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B68" s="5">
         <v>45747</v>
       </c>
       <c r="C68" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D68" s="5">
         <v>45747</v>
       </c>
       <c r="E68" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F68" t="s">
-        <v>11</v>
+        <v>137</v>
       </c>
       <c r="G68" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H68">
         <v>3</v>
@@ -2778,25 +2778,25 @@
     </row>
     <row r="69" spans="1:10">
       <c r="A69" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B69" s="5">
         <v>45747</v>
       </c>
       <c r="C69" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D69" s="5">
         <v>45747</v>
       </c>
       <c r="E69" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F69" t="s">
-        <v>11</v>
+        <v>137</v>
       </c>
       <c r="G69" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H69">
         <v>50</v>
@@ -2807,25 +2807,25 @@
     </row>
     <row r="70" spans="1:10">
       <c r="A70" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B70" s="5">
         <v>45747</v>
       </c>
       <c r="C70" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D70" s="5">
         <v>45747</v>
       </c>
       <c r="E70" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F70" t="s">
-        <v>11</v>
+        <v>137</v>
       </c>
       <c r="G70" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H70">
         <v>60</v>
@@ -2836,25 +2836,25 @@
     </row>
     <row r="71" spans="1:10">
       <c r="A71" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B71" s="5">
         <v>45747</v>
       </c>
       <c r="C71" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D71" s="5">
         <v>45747</v>
       </c>
       <c r="E71" t="s">
+        <v>86</v>
+      </c>
+      <c r="F71" t="s">
+        <v>137</v>
+      </c>
+      <c r="G71" t="s">
         <v>87</v>
-      </c>
-      <c r="F71" t="s">
-        <v>11</v>
-      </c>
-      <c r="G71" t="s">
-        <v>88</v>
       </c>
       <c r="H71">
         <v>20</v>
@@ -2865,25 +2865,25 @@
     </row>
     <row r="72" spans="1:10">
       <c r="A72" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B72" s="5">
         <v>45747</v>
       </c>
       <c r="C72" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D72" s="5">
         <v>45747</v>
       </c>
       <c r="E72" t="s">
+        <v>88</v>
+      </c>
+      <c r="F72" t="s">
+        <v>137</v>
+      </c>
+      <c r="G72" t="s">
         <v>89</v>
-      </c>
-      <c r="F72" t="s">
-        <v>11</v>
-      </c>
-      <c r="G72" t="s">
-        <v>90</v>
       </c>
       <c r="H72">
         <v>40</v>
@@ -2894,25 +2894,25 @@
     </row>
     <row r="73" spans="1:10">
       <c r="A73" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B73" s="5">
         <v>45747</v>
       </c>
       <c r="C73" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D73" s="5">
         <v>45747</v>
       </c>
       <c r="E73" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F73" t="s">
-        <v>11</v>
+        <v>137</v>
       </c>
       <c r="G73" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H73">
         <v>6</v>
@@ -2923,25 +2923,25 @@
     </row>
     <row r="74" spans="1:10">
       <c r="A74" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B74" s="5">
         <v>45747</v>
       </c>
       <c r="C74" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D74" s="5">
         <v>45747</v>
       </c>
       <c r="E74" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F74" t="s">
-        <v>11</v>
+        <v>137</v>
       </c>
       <c r="G74" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H74">
         <v>2</v>
@@ -2952,25 +2952,25 @@
     </row>
     <row r="75" spans="1:10">
       <c r="A75" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B75" s="5">
         <v>45747</v>
       </c>
       <c r="C75" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D75" s="5">
         <v>45747</v>
       </c>
       <c r="E75" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F75" t="s">
-        <v>11</v>
+        <v>137</v>
       </c>
       <c r="G75" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H75">
         <v>5</v>
@@ -2981,25 +2981,25 @@
     </row>
     <row r="76" spans="1:10">
       <c r="A76" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B76" s="5">
         <v>45747</v>
       </c>
       <c r="C76" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D76" s="5">
         <v>45747</v>
       </c>
       <c r="E76" t="s">
+        <v>92</v>
+      </c>
+      <c r="F76" t="s">
+        <v>137</v>
+      </c>
+      <c r="G76" t="s">
         <v>93</v>
-      </c>
-      <c r="F76" t="s">
-        <v>11</v>
-      </c>
-      <c r="G76" t="s">
-        <v>94</v>
       </c>
       <c r="H76">
         <v>2</v>
@@ -3010,25 +3010,25 @@
     </row>
     <row r="77" spans="1:10">
       <c r="A77" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B77" s="5">
         <v>45747</v>
       </c>
       <c r="C77" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D77" s="5">
         <v>45747</v>
       </c>
       <c r="E77" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F77" t="s">
-        <v>11</v>
+        <v>137</v>
       </c>
       <c r="G77" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H77">
         <v>3</v>
@@ -3039,25 +3039,25 @@
     </row>
     <row r="78" spans="1:10">
       <c r="A78" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B78" s="5">
         <v>45747</v>
       </c>
       <c r="C78" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D78" s="5">
         <v>45747</v>
       </c>
       <c r="E78" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F78" t="s">
-        <v>11</v>
+        <v>137</v>
       </c>
       <c r="G78" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H78">
         <v>8</v>
@@ -3068,25 +3068,25 @@
     </row>
     <row r="79" spans="1:10">
       <c r="A79" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B79" s="5">
         <v>45747</v>
       </c>
       <c r="C79" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D79" s="5">
         <v>45747</v>
       </c>
       <c r="E79" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F79" t="s">
-        <v>11</v>
+        <v>137</v>
       </c>
       <c r="G79" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H79">
         <v>2</v>
@@ -3097,25 +3097,25 @@
     </row>
     <row r="80" spans="1:10">
       <c r="A80" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B80" s="5">
         <v>45747</v>
       </c>
       <c r="C80" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D80" s="5">
         <v>45747</v>
       </c>
       <c r="E80" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F80" t="s">
-        <v>11</v>
+        <v>137</v>
       </c>
       <c r="G80" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H80">
         <v>2</v>
@@ -3126,25 +3126,25 @@
     </row>
     <row r="81" spans="1:10">
       <c r="A81" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B81" s="5">
         <v>45747</v>
       </c>
       <c r="C81" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D81" s="5">
         <v>45747</v>
       </c>
       <c r="E81" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F81" t="s">
-        <v>11</v>
+        <v>137</v>
       </c>
       <c r="G81" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H81">
         <v>5</v>
@@ -3155,25 +3155,25 @@
     </row>
     <row r="82" spans="1:10">
       <c r="A82" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B82" s="5">
         <v>45747</v>
       </c>
       <c r="C82" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D82" s="5">
         <v>45747</v>
       </c>
       <c r="E82" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F82" t="s">
-        <v>11</v>
+        <v>137</v>
       </c>
       <c r="G82" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H82">
         <v>200</v>
@@ -3184,25 +3184,25 @@
     </row>
     <row r="83" spans="1:10">
       <c r="A83" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B83" s="5">
         <v>45747</v>
       </c>
       <c r="C83" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D83" s="5">
         <v>45747</v>
       </c>
       <c r="E83" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F83" t="s">
-        <v>11</v>
+        <v>137</v>
       </c>
       <c r="G83" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H83">
         <v>1</v>
@@ -3213,25 +3213,25 @@
     </row>
     <row r="84" spans="1:10">
       <c r="A84" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B84" s="5">
         <v>45747</v>
       </c>
       <c r="C84" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D84" s="5">
         <v>45747</v>
       </c>
       <c r="E84" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F84" t="s">
-        <v>11</v>
+        <v>137</v>
       </c>
       <c r="G84" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H84">
         <v>2</v>
@@ -3242,25 +3242,25 @@
     </row>
     <row r="85" spans="1:10">
       <c r="A85" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B85" s="5">
         <v>45747</v>
       </c>
       <c r="C85" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D85" s="5">
         <v>45747</v>
       </c>
       <c r="E85" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F85" t="s">
-        <v>11</v>
+        <v>137</v>
       </c>
       <c r="G85" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H85">
         <v>10</v>
@@ -3271,25 +3271,25 @@
     </row>
     <row r="86" spans="1:10">
       <c r="A86" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B86" s="5">
         <v>45747</v>
       </c>
       <c r="C86" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D86" s="5">
         <v>45747</v>
       </c>
       <c r="E86" t="s">
+        <v>98</v>
+      </c>
+      <c r="F86" t="s">
+        <v>137</v>
+      </c>
+      <c r="G86" t="s">
         <v>99</v>
-      </c>
-      <c r="F86" t="s">
-        <v>11</v>
-      </c>
-      <c r="G86" t="s">
-        <v>100</v>
       </c>
       <c r="H86">
         <v>50</v>
@@ -3300,25 +3300,25 @@
     </row>
     <row r="87" spans="1:10">
       <c r="A87" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B87" s="5">
         <v>45747</v>
       </c>
       <c r="C87" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D87" s="5">
         <v>45747</v>
       </c>
       <c r="E87" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F87" t="s">
-        <v>11</v>
+        <v>137</v>
       </c>
       <c r="G87" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H87">
         <v>1</v>
@@ -3329,25 +3329,25 @@
     </row>
     <row r="88" spans="1:10">
       <c r="A88" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B88" s="5">
         <v>45747</v>
       </c>
       <c r="C88" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D88" s="5">
         <v>45747</v>
       </c>
       <c r="E88" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F88" t="s">
-        <v>11</v>
+        <v>137</v>
       </c>
       <c r="G88" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H88">
         <v>100</v>
@@ -3358,25 +3358,25 @@
     </row>
     <row r="89" spans="1:10">
       <c r="A89" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B89" s="5">
         <v>45747</v>
       </c>
       <c r="C89" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D89" s="5">
         <v>45747</v>
       </c>
       <c r="E89" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F89" t="s">
-        <v>11</v>
+        <v>137</v>
       </c>
       <c r="G89" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H89">
         <v>2</v>
@@ -3387,25 +3387,25 @@
     </row>
     <row r="90" spans="1:10">
       <c r="A90" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B90" s="5">
         <v>45747</v>
       </c>
       <c r="C90" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D90" s="5">
         <v>45747</v>
       </c>
       <c r="E90" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F90" t="s">
-        <v>11</v>
+        <v>137</v>
       </c>
       <c r="G90" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H90">
         <v>12</v>
@@ -3416,25 +3416,25 @@
     </row>
     <row r="91" spans="1:10">
       <c r="A91" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B91" s="5">
         <v>45747</v>
       </c>
       <c r="C91" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D91" s="5">
         <v>45747</v>
       </c>
       <c r="E91" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F91" t="s">
-        <v>11</v>
+        <v>137</v>
       </c>
       <c r="G91" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H91">
         <v>1</v>
@@ -3445,25 +3445,25 @@
     </row>
     <row r="92" spans="1:10">
       <c r="A92" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B92" s="5">
         <v>45747</v>
       </c>
       <c r="C92" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D92" s="5">
         <v>45747</v>
       </c>
       <c r="E92" t="s">
+        <v>105</v>
+      </c>
+      <c r="F92" t="s">
+        <v>137</v>
+      </c>
+      <c r="G92" t="s">
         <v>106</v>
-      </c>
-      <c r="F92" t="s">
-        <v>11</v>
-      </c>
-      <c r="G92" t="s">
-        <v>107</v>
       </c>
       <c r="H92">
         <v>300</v>
@@ -3474,25 +3474,25 @@
     </row>
     <row r="93" spans="1:10">
       <c r="A93" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B93" s="5">
         <v>45747</v>
       </c>
       <c r="C93" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D93" s="5">
         <v>45747</v>
       </c>
       <c r="E93" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F93" t="s">
-        <v>11</v>
+        <v>137</v>
       </c>
       <c r="G93" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H93">
         <v>1000</v>
@@ -3503,25 +3503,25 @@
     </row>
     <row r="94" spans="1:10">
       <c r="A94" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B94" s="5">
         <v>45747</v>
       </c>
       <c r="C94" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D94" s="5">
         <v>45747</v>
       </c>
       <c r="E94" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F94" t="s">
-        <v>11</v>
+        <v>137</v>
       </c>
       <c r="G94" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H94">
         <v>1000</v>
@@ -3532,25 +3532,25 @@
     </row>
     <row r="95" spans="1:10">
       <c r="A95" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B95" s="5">
         <v>45747</v>
       </c>
       <c r="C95" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D95" s="5">
         <v>45747</v>
       </c>
       <c r="E95" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F95" t="s">
-        <v>11</v>
+        <v>137</v>
       </c>
       <c r="G95" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H95">
         <v>1000</v>
@@ -3561,25 +3561,25 @@
     </row>
     <row r="96" spans="1:10">
       <c r="A96" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B96" s="5">
         <v>45747</v>
       </c>
       <c r="C96" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D96" s="5">
         <v>45747</v>
       </c>
       <c r="E96" t="s">
+        <v>110</v>
+      </c>
+      <c r="F96" t="s">
+        <v>137</v>
+      </c>
+      <c r="G96" t="s">
         <v>111</v>
-      </c>
-      <c r="F96" t="s">
-        <v>11</v>
-      </c>
-      <c r="G96" t="s">
-        <v>112</v>
       </c>
       <c r="H96">
         <v>5</v>
@@ -3590,25 +3590,25 @@
     </row>
     <row r="97" spans="1:10">
       <c r="A97" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B97" s="5">
         <v>45747</v>
       </c>
       <c r="C97" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D97" s="5">
         <v>45747</v>
       </c>
       <c r="E97" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F97" t="s">
-        <v>11</v>
+        <v>137</v>
       </c>
       <c r="G97" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H97">
         <v>2</v>
@@ -3619,25 +3619,25 @@
     </row>
     <row r="98" spans="1:10">
       <c r="A98" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B98" s="5">
         <v>45747</v>
       </c>
       <c r="C98" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D98" s="5">
         <v>45747</v>
       </c>
       <c r="E98" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F98" t="s">
-        <v>11</v>
+        <v>137</v>
       </c>
       <c r="G98" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H98">
         <v>40</v>
@@ -3648,25 +3648,25 @@
     </row>
     <row r="99" spans="1:10">
       <c r="A99" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B99" s="5">
         <v>45747</v>
       </c>
       <c r="C99" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D99" s="5">
         <v>45747</v>
       </c>
       <c r="E99" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F99" t="s">
-        <v>11</v>
+        <v>137</v>
       </c>
       <c r="G99" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H99">
         <v>20</v>
@@ -3677,25 +3677,25 @@
     </row>
     <row r="100" spans="1:10">
       <c r="A100" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B100" s="5">
         <v>45747</v>
       </c>
       <c r="C100" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D100" s="5">
         <v>45747</v>
       </c>
       <c r="E100" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F100" t="s">
-        <v>11</v>
+        <v>137</v>
       </c>
       <c r="G100" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H100">
         <v>8</v>
@@ -3706,25 +3706,25 @@
     </row>
     <row r="101" spans="1:10">
       <c r="A101" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B101" s="5">
         <v>45747</v>
       </c>
       <c r="C101" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D101" s="5">
         <v>45747</v>
       </c>
       <c r="E101" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F101" t="s">
-        <v>11</v>
+        <v>137</v>
       </c>
       <c r="G101" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H101">
         <v>24</v>
@@ -3735,25 +3735,25 @@
     </row>
     <row r="102" spans="1:10">
       <c r="A102" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B102" s="5">
         <v>45747</v>
       </c>
       <c r="C102" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D102" s="5">
         <v>45747</v>
       </c>
       <c r="E102" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F102" t="s">
-        <v>11</v>
+        <v>137</v>
       </c>
       <c r="G102" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H102">
         <v>1</v>
@@ -3764,25 +3764,25 @@
     </row>
     <row r="103" spans="1:10">
       <c r="A103" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B103" s="5">
         <v>45747</v>
       </c>
       <c r="C103" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D103" s="5">
         <v>45747</v>
       </c>
       <c r="E103" t="s">
+        <v>117</v>
+      </c>
+      <c r="F103" t="s">
+        <v>137</v>
+      </c>
+      <c r="G103" t="s">
         <v>118</v>
-      </c>
-      <c r="F103" t="s">
-        <v>11</v>
-      </c>
-      <c r="G103" t="s">
-        <v>119</v>
       </c>
       <c r="H103">
         <v>2</v>
@@ -3793,25 +3793,25 @@
     </row>
     <row r="104" spans="1:10">
       <c r="A104" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B104" s="5">
         <v>45747</v>
       </c>
       <c r="C104" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D104" s="5">
         <v>45747</v>
       </c>
       <c r="E104" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F104" t="s">
-        <v>11</v>
+        <v>137</v>
       </c>
       <c r="G104" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H104">
         <v>1</v>
@@ -3822,25 +3822,25 @@
     </row>
     <row r="105" spans="1:10">
       <c r="A105" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B105" s="5">
         <v>45747</v>
       </c>
       <c r="C105" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D105" s="5">
         <v>45747</v>
       </c>
       <c r="E105" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F105" t="s">
-        <v>11</v>
+        <v>137</v>
       </c>
       <c r="G105" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H105">
         <v>5</v>
@@ -3851,25 +3851,25 @@
     </row>
     <row r="106" spans="1:10">
       <c r="A106" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B106" s="5">
         <v>45747</v>
       </c>
       <c r="C106" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D106" s="5">
         <v>45747</v>
       </c>
       <c r="E106" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F106" t="s">
-        <v>11</v>
+        <v>137</v>
       </c>
       <c r="G106" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H106">
         <v>6</v>
@@ -3880,25 +3880,25 @@
     </row>
     <row r="107" spans="1:10">
       <c r="A107" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B107" s="5">
         <v>45747</v>
       </c>
       <c r="C107" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D107" s="5">
         <v>45747</v>
       </c>
       <c r="E107" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F107" t="s">
-        <v>11</v>
+        <v>137</v>
       </c>
       <c r="G107" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H107">
         <v>1</v>
@@ -3909,25 +3909,25 @@
     </row>
     <row r="108" spans="1:10">
       <c r="A108" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B108" s="5">
         <v>45747</v>
       </c>
       <c r="C108" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D108" s="5">
         <v>45747</v>
       </c>
       <c r="E108" t="s">
+        <v>122</v>
+      </c>
+      <c r="F108" t="s">
+        <v>137</v>
+      </c>
+      <c r="G108" t="s">
         <v>123</v>
-      </c>
-      <c r="F108" t="s">
-        <v>11</v>
-      </c>
-      <c r="G108" t="s">
-        <v>124</v>
       </c>
       <c r="H108">
         <v>100</v>
@@ -3938,25 +3938,25 @@
     </row>
     <row r="109" spans="1:10">
       <c r="A109" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B109" s="5">
         <v>45747</v>
       </c>
       <c r="C109" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D109" s="5">
         <v>45747</v>
       </c>
       <c r="E109" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F109" t="s">
-        <v>11</v>
+        <v>137</v>
       </c>
       <c r="G109" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H109">
         <v>60</v>
@@ -3967,25 +3967,25 @@
     </row>
     <row r="110" spans="1:10">
       <c r="A110" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B110" s="5">
         <v>45747</v>
       </c>
       <c r="C110" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D110" s="5">
         <v>45747</v>
       </c>
       <c r="E110" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F110" t="s">
-        <v>11</v>
+        <v>137</v>
       </c>
       <c r="G110" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H110">
         <v>10</v>
@@ -3996,25 +3996,25 @@
     </row>
     <row r="111" spans="1:10">
       <c r="A111" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B111" s="5">
         <v>45747</v>
       </c>
       <c r="C111" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D111" s="5">
         <v>45747</v>
       </c>
       <c r="E111" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F111" t="s">
-        <v>11</v>
+        <v>137</v>
       </c>
       <c r="G111" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H111">
         <v>9</v>
@@ -4025,25 +4025,25 @@
     </row>
     <row r="112" spans="1:10">
       <c r="A112" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B112" s="5">
         <v>45747</v>
       </c>
       <c r="C112" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D112" s="5">
         <v>45747</v>
       </c>
       <c r="E112" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F112" t="s">
-        <v>11</v>
+        <v>137</v>
       </c>
       <c r="G112" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H112">
         <v>1</v>
@@ -4054,25 +4054,25 @@
     </row>
     <row r="113" spans="1:10">
       <c r="A113" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B113" s="5">
         <v>45747</v>
       </c>
       <c r="C113" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D113" s="5">
         <v>45747</v>
       </c>
       <c r="E113" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F113" t="s">
-        <v>11</v>
+        <v>137</v>
       </c>
       <c r="G113" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H113">
         <v>5</v>
@@ -4083,25 +4083,25 @@
     </row>
     <row r="114" spans="1:10">
       <c r="A114" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B114" s="5">
         <v>45747</v>
       </c>
       <c r="C114" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D114" s="5">
         <v>45747</v>
       </c>
       <c r="E114" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F114" t="s">
-        <v>11</v>
+        <v>137</v>
       </c>
       <c r="G114" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H114">
         <v>1</v>
@@ -4112,25 +4112,25 @@
     </row>
     <row r="115" spans="1:10">
       <c r="A115" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B115" s="5">
         <v>45747</v>
       </c>
       <c r="C115" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D115" s="5">
         <v>45747</v>
       </c>
       <c r="E115" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F115" t="s">
-        <v>11</v>
+        <v>137</v>
       </c>
       <c r="G115" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H115">
         <v>100</v>
@@ -4141,25 +4141,25 @@
     </row>
     <row r="116" spans="1:10">
       <c r="A116" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B116" s="5">
         <v>45747</v>
       </c>
       <c r="C116" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D116" s="5">
         <v>45747</v>
       </c>
       <c r="E116" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F116" t="s">
-        <v>11</v>
+        <v>137</v>
       </c>
       <c r="G116" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H116">
         <v>88</v>
@@ -4170,25 +4170,25 @@
     </row>
     <row r="117" spans="1:10">
       <c r="A117" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B117" s="5">
         <v>45747</v>
       </c>
       <c r="C117" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D117" s="5">
         <v>45747</v>
       </c>
       <c r="E117" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F117" t="s">
-        <v>11</v>
+        <v>137</v>
       </c>
       <c r="G117" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H117">
         <v>100</v>
@@ -4199,25 +4199,25 @@
     </row>
     <row r="118" spans="1:10">
       <c r="A118" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B118" s="5">
         <v>45747</v>
       </c>
       <c r="C118" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D118" s="5">
         <v>45747</v>
       </c>
       <c r="E118" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F118" t="s">
-        <v>11</v>
+        <v>137</v>
       </c>
       <c r="G118" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H118">
         <v>1</v>
@@ -4228,25 +4228,25 @@
     </row>
     <row r="119" spans="1:10">
       <c r="A119" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B119" s="5">
         <v>45747</v>
       </c>
       <c r="C119" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D119" s="5">
         <v>45747</v>
       </c>
       <c r="E119" t="s">
+        <v>129</v>
+      </c>
+      <c r="F119" t="s">
+        <v>137</v>
+      </c>
+      <c r="G119" t="s">
         <v>130</v>
-      </c>
-      <c r="F119" t="s">
-        <v>11</v>
-      </c>
-      <c r="G119" t="s">
-        <v>131</v>
       </c>
       <c r="H119">
         <v>2</v>
@@ -4257,25 +4257,25 @@
     </row>
     <row r="120" spans="1:10">
       <c r="A120" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B120" s="5">
         <v>45747</v>
       </c>
       <c r="C120" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D120" s="5">
         <v>45747</v>
       </c>
       <c r="E120" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F120" t="s">
-        <v>11</v>
+        <v>137</v>
       </c>
       <c r="G120" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H120">
         <v>5</v>
@@ -4286,25 +4286,25 @@
     </row>
     <row r="121" spans="1:10">
       <c r="A121" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B121" s="5">
         <v>45747</v>
       </c>
       <c r="C121" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D121" s="5">
         <v>45747</v>
       </c>
       <c r="E121" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F121" t="s">
-        <v>11</v>
+        <v>137</v>
       </c>
       <c r="G121" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H121">
         <v>3</v>
@@ -4315,25 +4315,25 @@
     </row>
     <row r="122" spans="1:10">
       <c r="A122" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B122" s="5">
         <v>45747</v>
       </c>
       <c r="C122" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D122" s="5">
         <v>45747</v>
       </c>
       <c r="E122" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F122" t="s">
-        <v>11</v>
+        <v>137</v>
       </c>
       <c r="G122" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H122">
         <v>6</v>
@@ -4344,25 +4344,25 @@
     </row>
     <row r="123" spans="1:10">
       <c r="A123" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B123" s="5">
         <v>45747</v>
       </c>
       <c r="C123" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D123" s="5">
         <v>45747</v>
       </c>
       <c r="E123" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F123" t="s">
-        <v>11</v>
+        <v>137</v>
       </c>
       <c r="G123" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H123">
         <v>5</v>
@@ -4373,25 +4373,25 @@
     </row>
     <row r="124" spans="1:10">
       <c r="A124" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B124" s="5">
         <v>45747</v>
       </c>
       <c r="C124" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D124" s="5">
         <v>45747</v>
       </c>
       <c r="E124" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F124" t="s">
-        <v>11</v>
+        <v>137</v>
       </c>
       <c r="G124" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H124">
         <v>100</v>
@@ -4402,25 +4402,25 @@
     </row>
     <row r="125" spans="1:10">
       <c r="A125" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B125" s="5">
         <v>45747</v>
       </c>
       <c r="C125" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D125" s="5">
         <v>45747</v>
       </c>
       <c r="E125" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F125" t="s">
-        <v>11</v>
+        <v>137</v>
       </c>
       <c r="G125" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H125">
         <v>2</v>
@@ -4431,25 +4431,25 @@
     </row>
     <row r="126" spans="1:10">
       <c r="A126" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B126" s="5">
         <v>45747</v>
       </c>
       <c r="C126" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D126" s="5">
         <v>45747</v>
       </c>
       <c r="E126" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F126" t="s">
-        <v>11</v>
+        <v>137</v>
       </c>
       <c r="G126" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H126">
         <v>1</v>
@@ -4460,25 +4460,25 @@
     </row>
     <row r="127" spans="1:10">
       <c r="A127" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B127" s="5">
         <v>45747</v>
       </c>
       <c r="C127" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D127" s="5">
         <v>45747</v>
       </c>
       <c r="E127" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F127" t="s">
-        <v>11</v>
+        <v>137</v>
       </c>
       <c r="G127" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H127">
         <v>20</v>
@@ -4489,25 +4489,25 @@
     </row>
     <row r="128" spans="1:10">
       <c r="A128" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B128" s="5">
         <v>45747</v>
       </c>
       <c r="C128" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D128" s="5">
         <v>45747</v>
       </c>
       <c r="E128" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F128" t="s">
-        <v>11</v>
+        <v>137</v>
       </c>
       <c r="G128" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H128">
         <v>5</v>
@@ -4518,25 +4518,25 @@
     </row>
     <row r="129" spans="1:10">
       <c r="A129" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B129" s="5">
         <v>45747</v>
       </c>
       <c r="C129" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D129" s="5">
         <v>45747</v>
       </c>
       <c r="E129" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F129" t="s">
-        <v>11</v>
+        <v>137</v>
       </c>
       <c r="G129" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H129">
         <v>1</v>
@@ -4547,25 +4547,25 @@
     </row>
     <row r="130" spans="1:10">
       <c r="A130" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B130" s="5">
         <v>45747</v>
       </c>
       <c r="C130" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D130" s="5">
         <v>45747</v>
       </c>
       <c r="E130" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F130" t="s">
-        <v>11</v>
+        <v>137</v>
       </c>
       <c r="G130" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H130">
         <v>70</v>
